--- a/in/2cam_transverse.xlsx
+++ b/in/2cam_transverse.xlsx
@@ -162,6 +162,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Put Z at end for UTC—required!</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -280,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
   <si>
     <t>Sim</t>
   </si>
@@ -345,6 +358,9 @@
     <t>TranscarDataDir</t>
   </si>
   <si>
+    <t>~/U/transcar/out/gfortran</t>
+  </si>
+  <si>
     <t>ExcitationDATfn</t>
   </si>
   <si>
@@ -354,9 +370,15 @@
     <t>tReq</t>
   </si>
   <si>
+    <t>2013-03-31T09:00:30Z</t>
+  </si>
+  <si>
     <t>simconfig</t>
   </si>
   <si>
+    <t>DATCAR</t>
+  </si>
+  <si>
     <t>useActualData</t>
   </si>
   <si>
@@ -366,7 +388,7 @@
     <t>BeamEnergyFN</t>
   </si>
   <si>
-    <t>~/transcar/2014-04branch/dir.transcar.server/BT_E1E2prev.csv</t>
+    <t>../transcar/dir.transcar.server/BT_E1E2prev.csv</t>
   </si>
   <si>
     <t>reactionParam</t>
@@ -378,7 +400,7 @@
     <t>altitudePreload</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/zTranscar.h5</t>
+    <t>../transcar/dir.transcar.server/dir.input/conttanh.dat</t>
   </si>
   <si>
     <t>downsampleEnergy</t>
@@ -706,7 +728,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -759,6 +781,14 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -994,7 +1024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,11 +1069,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,7 +1089,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,7 +1097,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1067,11 +1105,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,7 +1125,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1159,19 +1201,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1195,7 +1237,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,9 +1354,9 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1428,47 +1470,53 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="G9" s="0"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="G10" s="0"/>
-      <c r="H10" s="11" t="s">
-        <v>22</v>
+      <c r="H10" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
       <c r="G11" s="0"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="5"/>
       <c r="G12" s="0"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -1477,9 +1525,9 @@
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="7"/>
@@ -1488,44 +1536,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
       <c r="G15" s="0"/>
-      <c r="H15" s="14" t="s">
-        <v>28</v>
+      <c r="H15" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
       <c r="G16" s="0"/>
-      <c r="H16" s="14" t="s">
-        <v>30</v>
+      <c r="H16" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
       <c r="G17" s="0"/>
-      <c r="H17" s="14" t="s">
-        <v>32</v>
+      <c r="H17" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="7"/>
       <c r="G18" s="0"/>
       <c r="H18" s="1" t="n">
@@ -1539,96 +1587,108 @@
       <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="18"/>
+      <c r="A20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="7"/>
       <c r="G20" s="0"/>
       <c r="H20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="7"/>
       <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="21"/>
       <c r="C22" s="7"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="7"/>
       <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="B24" s="21"/>
       <c r="C24" s="7"/>
       <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="7"/>
       <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="7"/>
       <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="7"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="B28" s="21"/>
       <c r="C28" s="7"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="20"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -1638,24 +1698,24 @@
       <c r="H30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="22" t="n">
+      <c r="A31" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="25"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="19" t="n">
+      <c r="A32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="21"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
     </row>
@@ -1667,13 +1727,13 @@
       <c r="H33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>46</v>
+      <c r="A34" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
-      <c r="G34" s="24" t="s">
-        <v>47</v>
+      <c r="G34" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="H34" s="0"/>
     </row>
@@ -1685,121 +1745,119 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
-      <c r="G38" s="26"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
-        <v>50</v>
+      <c r="A39" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B39" s="0"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="13"/>
       <c r="G39" s="0"/>
-      <c r="H39" s="13" t="n">
+      <c r="H39" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="s">
-        <v>51</v>
+      <c r="A40" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="D40" s="28" t="n">
+      <c r="D40" s="31" t="n">
         <v>0.1</v>
       </c>
-      <c r="E40" s="29"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="5"/>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
-        <v>52</v>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="D41" s="30" t="n">
-        <v>1.66666</v>
-      </c>
-      <c r="E41" s="31"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="5"/>
       <c r="G41" s="0"/>
       <c r="H41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
-        <v>53</v>
+      <c r="A42" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="30" t="n">
+      <c r="D42" s="33" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E42" s="31"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="5"/>
       <c r="G42" s="0"/>
       <c r="H42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="s">
-        <v>54</v>
+      <c r="A43" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
-      <c r="D43" s="30" t="n">
+      <c r="D43" s="33" t="n">
         <v>7.1</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="0"/>
       <c r="H43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
-        <v>55</v>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="30" t="n">
+      <c r="D44" s="33" t="n">
         <v>90</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="11"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
-        <v>56</v>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="32" t="n">
-        <v>989</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="11"/>
+      <c r="D45" s="35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
     </row>
@@ -1809,17 +1867,17 @@
       <c r="C46" s="0"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="11"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
@@ -1827,22 +1885,22 @@
       <c r="C48" s="0"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="16"/>
+      <c r="A49" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="18"/>
       <c r="C49" s="7"/>
       <c r="E49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
@@ -1850,52 +1908,52 @@
       <c r="E50" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
-      <c r="F52" s="36"/>
+      <c r="F52" s="39"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
-      <c r="F53" s="37"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="F54" s="38"/>
+      <c r="F54" s="41"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
-      <c r="F55" s="37"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
-      <c r="F56" s="24"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
@@ -1905,11 +1963,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="E58" s="39"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,11 +1975,11 @@
       <c r="C59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="s">
-        <v>67</v>
+      <c r="A60" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C60" s="5"/>
     </row>
@@ -1955,22 +2013,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="252" min="4" style="40" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="21.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="22.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.0459183673469"/>
+    <col collapsed="false" hidden="false" max="252" min="4" style="43" width="10.4132653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="42"/>
+      <c r="B1" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="45"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -2222,7 +2280,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2481,16 +2539,16 @@
       <c r="IR2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="43" t="n">
+      <c r="A3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="n">
+      <c r="C3" s="46" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -2741,13 +2799,13 @@
       <c r="IR3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="43" t="n">
+      <c r="A4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="n">
+      <c r="C4" s="46" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3001,8 +3059,8 @@
       <c r="IR4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>74</v>
+      <c r="A5" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3261,13 +3319,13 @@
       <c r="IR5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="43" t="n">
+      <c r="A6" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="46" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="43" t="n">
+      <c r="C6" s="46" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0"/>
@@ -3521,13 +3579,13 @@
       <c r="IR6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="43" t="n">
+      <c r="A7" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="43" t="n">
+      <c r="C7" s="46" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3781,8 +3839,8 @@
       <c r="IR7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>77</v>
+      <c r="A8" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4042,12 +4100,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="47" t="n">
+        <v>81</v>
+      </c>
+      <c r="B9" s="50" t="n">
         <v>100000000</v>
       </c>
-      <c r="C9" s="47" t="n">
+      <c r="C9" s="50" t="n">
         <v>100000000</v>
       </c>
       <c r="D9" s="0"/>
@@ -4302,12 +4360,12 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="47" t="n">
+        <v>82</v>
+      </c>
+      <c r="B10" s="50" t="n">
         <v>100000000</v>
       </c>
-      <c r="C10" s="47" t="n">
+      <c r="C10" s="50" t="n">
         <v>100000000</v>
       </c>
       <c r="D10" s="0"/>
@@ -4561,8 +4619,8 @@
       <c r="IR10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>80</v>
+      <c r="A11" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4818,9 +4876,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="48"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5074,7 +5132,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5329,13 +5387,13 @@
       <c r="IR13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="50" t="n">
+      <c r="A14" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="53" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="50" t="n">
+      <c r="C14" s="53" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5589,11 +5647,11 @@
       <c r="IR14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="s">
-        <v>84</v>
+      <c r="A15" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5845,11 +5903,11 @@
       <c r="IR15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="s">
-        <v>85</v>
+      <c r="A16" s="54" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6101,11 +6159,11 @@
       <c r="IR16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6358,7 +6416,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6615,7 +6673,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6868,10 +6926,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="56"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7124,10 +7182,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="56"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7380,7 +7438,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7636,7 +7694,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7892,7 +7950,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8402,7 +8460,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8662,7 +8720,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8927,7 +8985,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8938,7 +8996,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8949,7 +9007,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8960,7 +9018,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8971,7 +9029,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8983,23 +9041,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="57" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="60" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="57" t="n">
+      <c r="C35" s="60" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="57" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="60" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="57" t="n">
+      <c r="C36" s="60" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9010,7 +9068,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9021,7 +9079,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9032,24 +9090,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -9087,44 +9145,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="58" t="n">
+        <v>123</v>
+      </c>
+      <c r="B2" s="61" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -9160,7 +9218,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>-1.5</v>
@@ -9198,19 +9256,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.5</v>
@@ -9248,7 +9306,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9286,83 +9344,83 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -9400,45 +9458,45 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="47" t="n">
+        <v>134</v>
+      </c>
+      <c r="B12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="C12" s="47" t="n">
+      <c r="C12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="E12" s="47" t="n">
+      <c r="E12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="F12" s="47" t="n">
+      <c r="F12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="G12" s="47" t="n">
+      <c r="G12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H12" s="47" t="n">
+      <c r="H12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I12" s="47" t="n">
+      <c r="I12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="J12" s="47" t="n">
+      <c r="J12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="K12" s="47" t="n">
+      <c r="K12" s="50" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="L12" s="47" t="n">
+      <c r="L12" s="50" t="n">
         <v>2800000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -9476,7 +9534,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9514,7 +9572,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -9552,7 +9610,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -9590,7 +9648,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -9628,7 +9686,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>

--- a/in/2cam_transverse.xlsx
+++ b/in/2cam_transverse.xlsx
@@ -1356,7 +1356,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1983,6 +1983,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/in/2cam_transverse.xlsx
+++ b/in/2cam_transverse.xlsx
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
   <si>
     <t>Sim</t>
   </si>
@@ -319,13 +319,10 @@
     <t>COMMENT1</t>
   </si>
   <si>
-    <t>Simulated Flaming Aurora</t>
+    <t>Simulated transverse Aurora</t>
   </si>
   <si>
     <t>COMMENT2</t>
-  </si>
-  <si>
-    <t>./RunHSTsim0.py in/jgr2013.xlsx --minev 150 -m  fwd optim gfit eavg png --vlim -3.8 7.1 90 350</t>
   </si>
   <si>
     <t>cal1Ddir</t>
@@ -1354,9 +1351,9 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1410,27 +1407,25 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
@@ -1439,10 +1434,10 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="G6" s="0"/>
@@ -1450,10 +1445,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="7"/>
       <c r="G7" s="0"/>
@@ -1461,10 +1456,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="7"/>
       <c r="G8" s="0"/>
@@ -1472,10 +1467,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="13"/>
       <c r="G9" s="0"/>
@@ -1483,40 +1478,40 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
       <c r="G10" s="0"/>
       <c r="H10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
       <c r="G11" s="0"/>
       <c r="H11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="5"/>
       <c r="G12" s="0"/>
       <c r="H12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -1527,7 +1522,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="7"/>
@@ -1538,40 +1533,40 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
       <c r="G15" s="0"/>
       <c r="H15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
       <c r="G16" s="0"/>
       <c r="H16" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
       <c r="G17" s="0"/>
       <c r="H17" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="7"/>
@@ -1588,18 +1583,18 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="7"/>
       <c r="G20" s="0"/>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="7"/>
@@ -1610,7 +1605,7 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="7"/>
@@ -1621,7 +1616,7 @@
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="7"/>
@@ -1632,7 +1627,7 @@
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
@@ -1643,7 +1638,7 @@
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="7"/>
@@ -1654,7 +1649,7 @@
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="7"/>
@@ -1672,7 +1667,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="7"/>
@@ -1683,7 +1678,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1699,7 +1694,7 @@
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>0</v>
@@ -1710,7 +1705,7 @@
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>1</v>
@@ -1728,12 +1723,12 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
       <c r="G34" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" s="0"/>
     </row>
@@ -1745,7 +1740,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -1754,7 +1749,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -1770,7 +1765,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="0"/>
       <c r="C39" s="13"/>
@@ -1781,7 +1776,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
@@ -1795,7 +1790,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
@@ -1807,7 +1802,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
@@ -1821,7 +1816,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
@@ -1835,7 +1830,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
@@ -1849,7 +1844,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
@@ -1871,7 +1866,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
@@ -1889,18 +1884,18 @@
     </row>
     <row r="49" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="7"/>
       <c r="E49" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
@@ -1917,7 +1912,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
@@ -1925,7 +1920,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
@@ -1933,7 +1928,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1941,7 +1936,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
@@ -1949,7 +1944,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1963,7 +1958,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
@@ -1976,10 +1971,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C60" s="5"/>
     </row>
@@ -2024,10 +2019,10 @@
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>73</v>
       </c>
       <c r="D1" s="45"/>
       <c r="E1" s="0"/>
@@ -2281,7 +2276,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2541,7 +2536,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="46" t="n">
         <v>0</v>
@@ -2801,7 +2796,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="46" t="n">
         <v>0</v>
@@ -3061,7 +3056,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3321,7 +3316,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="46" t="n">
         <v>90</v>
@@ -3581,7 +3576,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>9</v>
@@ -3841,7 +3836,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4101,7 +4096,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="50" t="n">
         <v>100000000</v>
@@ -4361,7 +4356,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="50" t="n">
         <v>100000000</v>
@@ -4621,7 +4616,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4877,7 +4872,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="0"/>
@@ -5133,7 +5128,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -5389,7 +5384,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="53" t="n">
         <v>-1</v>
@@ -5649,7 +5644,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="55"/>
@@ -5905,7 +5900,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="55"/>
@@ -6161,7 +6156,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
@@ -6417,7 +6412,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6927,7 +6922,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="51"/>
       <c r="C20" s="59"/>
@@ -7183,7 +7178,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="59"/>
@@ -7439,7 +7434,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7695,7 +7690,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7951,7 +7946,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -8461,7 +8456,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8721,7 +8716,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8986,7 +8981,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8997,7 +8992,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9008,7 +9003,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9019,7 +9014,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9030,7 +9025,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9042,7 +9037,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="60" t="n">
         <v>65.1186367</v>
@@ -9053,7 +9048,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="60" t="n">
         <v>-147.432975</v>
@@ -9069,7 +9064,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9080,7 +9075,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9091,24 +9086,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -9146,42 +9141,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="61" t="n">
         <v>1</v>
@@ -9219,7 +9214,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>-1.5</v>
@@ -9257,19 +9252,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.5</v>
@@ -9307,7 +9302,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9345,83 +9340,83 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -9459,7 +9454,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="50" t="n">
         <v>2800000000000</v>
@@ -9497,7 +9492,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -9535,7 +9530,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9573,7 +9568,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -9611,7 +9606,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -9649,7 +9644,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -9687,7 +9682,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>

--- a/in/2cam_transverse.xlsx
+++ b/in/2cam_transverse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -245,6 +245,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Photoelectron/data number</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -293,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <t>Sim</t>
   </si>
@@ -337,19 +350,19 @@
     <t>BG3transFN</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/BG3transmittance.h5</t>
+    <t>transcarutils/precompute/BG3transmittance.h5</t>
   </si>
   <si>
     <t>windowFN</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/ixonWindowT.h5</t>
+    <t>transcarutils/precompute/ixonWindowT.h5</t>
   </si>
   <si>
     <t>emccdQEfn</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/emccdQE.h5</t>
+    <t>transcarutils/precompute/emccdQE.h5</t>
   </si>
   <si>
     <t>TranscarDataDir</t>
@@ -391,7 +404,7 @@
     <t>reactionParam</t>
   </si>
   <si>
-    <t>../transcar-utils/precompute/vjeinfc.h5</t>
+    <t>transcarutils/precompute/vjeinfc.h5</t>
   </si>
   <si>
     <t>altitudePreload</t>
@@ -535,7 +548,7 @@
     <t>FOVmaxLengthKM</t>
   </si>
   <si>
-    <t>noiseStd</t>
+    <t>noiseLam</t>
   </si>
   <si>
     <t>CCDBias</t>
@@ -626,6 +639,15 @@
   </si>
   <si>
     <t>hst1cal.h5</t>
+  </si>
+  <si>
+    <t>pixarea_sqcm</t>
+  </si>
+  <si>
+    <t>pedn</t>
+  </si>
+  <si>
+    <t>ampgain</t>
   </si>
   <si>
     <t>Arc0</t>
@@ -725,7 +747,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -836,22 +858,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1021,7 +1030,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1202,15 +1211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1234,7 +1235,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1263,6 +1264,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,7 +1358,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1454,7 +1459,7 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1685,7 +1690,7 @@
       <c r="G29" s="0"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1999,12 +2004,12 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IR41"/>
+  <dimension ref="A1:IQ45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E22" activeCellId="1" sqref="B6:B8 E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2012,8 +2017,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="21.4030612244898"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="43" width="22.9744897959184"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="252" min="4" style="43" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="253" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="43" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,7 +2029,7 @@
       <c r="C1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="0"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -2272,7 +2277,6 @@
       <c r="IO1" s="0"/>
       <c r="IP1" s="0"/>
       <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2532,19 +2536,18 @@
       <c r="IO2" s="0"/>
       <c r="IP2" s="0"/>
       <c r="IQ2" s="0"/>
-      <c r="IR2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="46" t="n">
+      <c r="B3" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="45" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -2792,16 +2795,15 @@
       <c r="IO3" s="0"/>
       <c r="IP3" s="0"/>
       <c r="IQ3" s="0"/>
-      <c r="IR3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="46" t="n">
+      <c r="B4" s="45" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="45" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3052,7 +3054,6 @@
       <c r="IO4" s="0"/>
       <c r="IP4" s="0"/>
       <c r="IQ4" s="0"/>
-      <c r="IR4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
@@ -3312,16 +3313,15 @@
       <c r="IO5" s="0"/>
       <c r="IP5" s="0"/>
       <c r="IQ5" s="0"/>
-      <c r="IR5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="45" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="45" t="n">
         <v>88.3</v>
       </c>
       <c r="D6" s="0"/>
@@ -3572,16 +3572,15 @@
       <c r="IO6" s="0"/>
       <c r="IP6" s="0"/>
       <c r="IQ6" s="0"/>
-      <c r="IR6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="45" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3832,7 +3831,6 @@
       <c r="IO7" s="0"/>
       <c r="IP7" s="0"/>
       <c r="IQ7" s="0"/>
-      <c r="IR7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
@@ -4092,17 +4090,16 @@
       <c r="IO8" s="0"/>
       <c r="IP8" s="0"/>
       <c r="IQ8" s="0"/>
-      <c r="IR8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="50" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="C9" s="50" t="n">
-        <v>100000000</v>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -4352,16 +4349,15 @@
       <c r="IO9" s="0"/>
       <c r="IP9" s="0"/>
       <c r="IQ9" s="0"/>
-      <c r="IR9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="50" t="n">
+      <c r="B10" s="48" t="n">
         <v>100000000</v>
       </c>
-      <c r="C10" s="50" t="n">
+      <c r="C10" s="48" t="n">
         <v>100000000</v>
       </c>
       <c r="D10" s="0"/>
@@ -4612,7 +4608,6 @@
       <c r="IO10" s="0"/>
       <c r="IP10" s="0"/>
       <c r="IQ10" s="0"/>
-      <c r="IR10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
@@ -4868,13 +4863,12 @@
       <c r="IO11" s="0"/>
       <c r="IP11" s="0"/>
       <c r="IQ11" s="0"/>
-      <c r="IR11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5124,7 +5118,6 @@
       <c r="IO12" s="0"/>
       <c r="IP12" s="0"/>
       <c r="IQ12" s="0"/>
-      <c r="IR12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -5380,16 +5373,15 @@
       <c r="IO13" s="0"/>
       <c r="IP13" s="0"/>
       <c r="IQ13" s="0"/>
-      <c r="IR13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="53" t="n">
+      <c r="B14" s="51" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="53" t="n">
+      <c r="C14" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5640,14 +5632,13 @@
       <c r="IO14" s="0"/>
       <c r="IP14" s="0"/>
       <c r="IQ14" s="0"/>
-      <c r="IR14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="55"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5896,14 +5887,13 @@
       <c r="IO15" s="0"/>
       <c r="IP15" s="0"/>
       <c r="IQ15" s="0"/>
-      <c r="IR15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6152,14 +6142,13 @@
       <c r="IO16" s="0"/>
       <c r="IP16" s="0"/>
       <c r="IQ16" s="0"/>
-      <c r="IR16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6408,7 +6397,6 @@
       <c r="IO17" s="0"/>
       <c r="IP17" s="0"/>
       <c r="IQ17" s="0"/>
-      <c r="IR17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
@@ -6664,12 +6652,11 @@
       <c r="IO18" s="0"/>
       <c r="IP18" s="0"/>
       <c r="IQ18" s="0"/>
-      <c r="IR18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6918,14 +6905,13 @@
       <c r="IO19" s="0"/>
       <c r="IP19" s="0"/>
       <c r="IQ19" s="0"/>
-      <c r="IR19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7174,14 +7160,13 @@
       <c r="IO20" s="0"/>
       <c r="IP20" s="0"/>
       <c r="IQ20" s="0"/>
-      <c r="IR20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7430,7 +7415,6 @@
       <c r="IO21" s="0"/>
       <c r="IP21" s="0"/>
       <c r="IQ21" s="0"/>
-      <c r="IR21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -7686,7 +7670,6 @@
       <c r="IO22" s="0"/>
       <c r="IP22" s="0"/>
       <c r="IQ22" s="0"/>
-      <c r="IR22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -7942,7 +7925,6 @@
       <c r="IO23" s="0"/>
       <c r="IP23" s="0"/>
       <c r="IQ23" s="0"/>
-      <c r="IR23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
@@ -8198,7 +8180,6 @@
       <c r="IO24" s="0"/>
       <c r="IP24" s="0"/>
       <c r="IQ24" s="0"/>
-      <c r="IR24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -8452,7 +8433,6 @@
       <c r="IO25" s="0"/>
       <c r="IP25" s="0"/>
       <c r="IQ25" s="0"/>
-      <c r="IR25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
@@ -8465,9 +8445,9 @@
         <v>15</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -8712,7 +8692,6 @@
       <c r="IO26" s="0"/>
       <c r="IP26" s="0"/>
       <c r="IQ26" s="0"/>
-      <c r="IR26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
@@ -8725,9 +8704,9 @@
         <v>2</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -8972,7 +8951,6 @@
       <c r="IO27" s="0"/>
       <c r="IP27" s="0"/>
       <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
@@ -9039,10 +9017,10 @@
       <c r="A35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="60" t="n">
+      <c r="B35" s="58" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="60" t="n">
+      <c r="C35" s="58" t="n">
         <v>65.12657</v>
       </c>
     </row>
@@ -9050,10 +9028,10 @@
       <c r="A36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="60" t="n">
+      <c r="B36" s="58" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="60" t="n">
+      <c r="C36" s="58" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9104,6 +9082,46 @@
       </c>
       <c r="C41" s="4" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="59" t="n">
+        <f aca="false">(0.0016)^2</f>
+        <v>2.56E-006</v>
+      </c>
+      <c r="C43" s="59" t="n">
+        <f aca="false">(0.0016)^2</f>
+        <v>2.56E-006</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" s="43" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9129,7 +9147,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="1" sqref="B6:B8 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9141,44 +9159,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="61" t="n">
+        <v>125</v>
+      </c>
+      <c r="B2" s="60" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -9214,7 +9232,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>-1.5</v>
@@ -9252,19 +9270,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.5</v>
@@ -9302,7 +9320,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9340,83 +9358,83 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5000</v>
@@ -9454,45 +9472,45 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="50" t="n">
+        <v>136</v>
+      </c>
+      <c r="B12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="C12" s="50" t="n">
+      <c r="C12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="D12" s="50" t="n">
+      <c r="D12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="E12" s="50" t="n">
+      <c r="E12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="F12" s="50" t="n">
+      <c r="F12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="G12" s="50" t="n">
+      <c r="G12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H12" s="50" t="n">
+      <c r="H12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="I12" s="50" t="n">
+      <c r="I12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="J12" s="50" t="n">
+      <c r="J12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="K12" s="50" t="n">
+      <c r="K12" s="48" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="L12" s="50" t="n">
+      <c r="L12" s="48" t="n">
         <v>2800000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -9530,7 +9548,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9568,7 +9586,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -9606,7 +9624,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.5</v>
@@ -9644,7 +9662,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -9682,7 +9700,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.2</v>
